--- a/data/georgia_census/qvemo-qartli/tetriwyaro/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/tetriwyaro/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4CF9C4-08A4-4CFA-A6D6-8A4434B8F31F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25AE1A20-4A2E-4FED-AFC3-449FBB9FDD2C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A948B4C5-F136-48C8-8675-0D2C491B928B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC492330-4AFA-437E-90E1-02C6A5C92E3E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D58E23D-9EFA-44ED-A047-488A58890E0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E38897-A4A7-404D-8D98-B34E887AF2F0}"/>
 </file>